--- a/Results.xlsx
+++ b/Results.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="19cols" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="3" r:id="rId1"/>
     <sheet name="todo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Existing_LoadCSV.ps1</t>
   </si>
@@ -40,184 +40,236 @@
     <t>H:\InProgress\CSVTest\Chrissy\Existing_LoadCSV.ps1</t>
   </si>
   <si>
-    <t>Get-ChildItem  H:\InProgress\CSVTest\Chrissy\allCountries\*.txt | select FullName, @{n='Encoding';e={Get-FileEncoding $_.FullName}}</t>
-  </si>
-  <si>
     <t>cd E:\GIT\DataProjects\_SharedScripts\NEW\ToInit_V8\Import\CSV</t>
   </si>
   <si>
     <t>. .\LoadCsvTosql.ps1</t>
   </si>
   <si>
-    <t>cd H:\InProgress\CSVTest\Chrissy\</t>
-  </si>
-  <si>
     <t>Import-Module .\CsvSqlimport.psm1 -Force</t>
   </si>
   <si>
+    <t>LoadCsvTosql.ps1</t>
+  </si>
+  <si>
+    <t>yes (??)</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>File needs column names</t>
+  </si>
+  <si>
+    <t>Multiple files</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Table needs to exist?</t>
+  </si>
+  <si>
+    <t>check existing solution regarding colum names in the file</t>
+  </si>
+  <si>
+    <t>. Operator</t>
+  </si>
+  <si>
+    <t>further steps</t>
+  </si>
+  <si>
+    <t>Script name</t>
+  </si>
+  <si>
+    <t>53.73s</t>
+  </si>
+  <si>
+    <t>25.59s</t>
+  </si>
+  <si>
+    <t>2.5s</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>0.16s</t>
+  </si>
+  <si>
+    <t>doesn't work without tablename specified</t>
+  </si>
+  <si>
+    <t>use param -FirstRowColumns</t>
+  </si>
+  <si>
+    <t>Solution Used</t>
+  </si>
+  <si>
+    <t>60.91s</t>
+  </si>
+  <si>
+    <t>1M rows</t>
+  </si>
+  <si>
+    <t>5K rows</t>
+  </si>
+  <si>
+    <t>2.65M rows</t>
+  </si>
+  <si>
+    <t>100K rows</t>
+  </si>
+  <si>
+    <t>Import-CsvToSql -Csv H:\InProgress\PowerShell_CSV\myRepo\SourceFilesTXT\*.txt -SqlServer WIN-N53LUO6QQ58\SQL14 -Database youCanDeleteThis -Table allCountriesChrissy -Delimiter "`t"</t>
+  </si>
+  <si>
+    <t>2.9s</t>
+  </si>
+  <si>
+    <t>LoadCsvTosql -Directory "H:\InProgress\PowerShell_CSV\myRepo\SourceFilesCSV\" -ServerName "WIN-N53LUO6QQ58\SQL14" -DBName "youCanDeleteThis"</t>
+  </si>
+  <si>
+    <t>Get-ChildItem  H:\InProgress\PowerShell_CSV\myRepo\SourceFilesTXT\*.txt | select FullName, @{n='Encoding';e={Get-FileEncoding $_.FullName}}</t>
+  </si>
+  <si>
+    <t>cd H:\InProgress\PowerShell_CSV\myRepo\SourceFilesCSV</t>
+  </si>
+  <si>
+    <t>43.74m</t>
+  </si>
+  <si>
+    <t>14m 42s</t>
+  </si>
+  <si>
+    <t>2.23s</t>
+  </si>
+  <si>
+    <t>main constructions that make it faster/slower - compare 3 solutions</t>
+  </si>
+  <si>
+    <t>49.7s</t>
+  </si>
+  <si>
+    <t>try to make Chrissy solution work for CSVs, then try running Anderson files on Chrissy</t>
+  </si>
+  <si>
+    <t>find out why first script needs to be run from ISE</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>1. Chrissy's solution</t>
+  </si>
+  <si>
+    <t>2. exists on mig server but never used?</t>
+  </si>
+  <si>
+    <t>3. Our Current Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $columnparser = New-Object Microsoft.VisualBasic.FileIO.TextFieldParser($parserfile)</t>
+  </si>
+  <si>
+    <t>Remove-Module -Name "CsvSqlimport"</t>
+  </si>
+  <si>
     <r>
-      <t>Remove-Module</t>
+      <t>$row = $datatable.Rows.</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FF007D9A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -Name</t>
+      <t>Add</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($line.Split($delimiter))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$reader = New-Object System.IO.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StreamReader</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($file)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$datatable = New-Object System.Data.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataTable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"CsvSqlimport"</t>
-    </r>
-  </si>
-  <si>
-    <t>14min 42s</t>
-  </si>
-  <si>
-    <t>LoadCsvTosql.ps1</t>
-  </si>
-  <si>
-    <t>yes (??)</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>File needs column names</t>
-  </si>
-  <si>
-    <t>Multiple files</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>exists in GIT repo but never used?</t>
-  </si>
-  <si>
-    <t>Table needs to exist?</t>
-  </si>
-  <si>
-    <t>check existing solution regarding colum names in the file</t>
-  </si>
-  <si>
-    <t>try running Anderson files on Chrissy</t>
-  </si>
-  <si>
-    <t>. Operator</t>
-  </si>
-  <si>
-    <t>main constructions that make it faster/slower</t>
-  </si>
-  <si>
-    <t>further steps</t>
-  </si>
-  <si>
-    <t>Chrissy's solution</t>
-  </si>
-  <si>
-    <t>Script name</t>
-  </si>
-  <si>
-    <t>53.73s</t>
-  </si>
-  <si>
-    <t>25.59s</t>
-  </si>
-  <si>
-    <t>LoadCsvTosql -Directory "H:\InProgress\PowerShell_CSV\SourceFilesCSV\" -ServerName "WIN-N53LUO6QQ58\SQL14" -DBName "youCanDeleteThis"</t>
-  </si>
-  <si>
-    <t>Time per 1M rows</t>
-  </si>
-  <si>
-    <t>Time per 5K rows</t>
-  </si>
-  <si>
-    <t>2.5s</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Import-CsvToSql -Csv H:\InProgress\PowerShell_CSV\SourceFilesTXT\*.txt -SqlServer WIN-N53LUO6QQ58\SQL14 -Database youCanDeleteThis -Table allCountriesChrissy -Delimiter "`t"</t>
-  </si>
-  <si>
-    <t>0.16s</t>
-  </si>
-  <si>
-    <t>Our Current Solution</t>
-  </si>
-  <si>
-    <t>doesn't work without tablename specified</t>
-  </si>
-  <si>
-    <t>use param -FirstRowColumns</t>
-  </si>
-  <si>
-    <t>Solution Used</t>
-  </si>
-  <si>
-    <t>Time per 2.65M rows</t>
-  </si>
-  <si>
-    <t>60.91s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0101FD"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF007D9A"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -238,7 +290,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,27 +314,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -274,38 +344,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="47" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,21 +373,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:M20" totalsRowShown="0">
-  <autoFilter ref="B1:M20"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Script name"/>
-    <tableColumn id="2" name="Time per 1M rows"/>
-    <tableColumn id="10" name="Time per 5K rows"/>
-    <tableColumn id="8" name="Time per 2.65M rows"/>
-    <tableColumn id="3" name="Table needs to exist?"/>
-    <tableColumn id="4" name="File needs column names"/>
-    <tableColumn id="5" name="Batch size"/>
-    <tableColumn id="7" name="Multiple files"/>
-    <tableColumn id="13" name="Solution Used"/>
-    <tableColumn id="9" name="Description"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Description"/>
+    <tableColumn id="2" name="Script name"/>
+    <tableColumn id="3" name="5K rows"/>
+    <tableColumn id="4" name="100K rows"/>
+    <tableColumn id="5" name="1M rows"/>
+    <tableColumn id="6" name="2.65M rows"/>
+    <tableColumn id="7" name="Table needs to exist?"/>
+    <tableColumn id="8" name="File needs column names"/>
+    <tableColumn id="9" name="Batch size"/>
+    <tableColumn id="10" name="Multiple files"/>
+    <tableColumn id="11" name="Solution Used"/>
     <tableColumn id="12" name="Command"/>
-    <tableColumn id="6" name="Comments"/>
+    <tableColumn id="13" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,230 +657,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="161.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>50000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I6">
+        <v>50000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>50000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L11" t="s">
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="9" t="s">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
         <v>38</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L19" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Existing_LoadCSV.ps1</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Batch size</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>File needs column names</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Table needs to exist?</t>
   </si>
   <si>
-    <t>check existing solution regarding colum names in the file</t>
-  </si>
-  <si>
-    <t>. Operator</t>
-  </si>
-  <si>
     <t>further steps</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>cd H:\InProgress\PowerShell_CSV\myRepo\SourceFilesCSV</t>
   </si>
   <si>
-    <t>43.74m</t>
-  </si>
-  <si>
     <t>14m 42s</t>
   </si>
   <si>
@@ -154,15 +142,6 @@
     <t>49.7s</t>
   </si>
   <si>
-    <t>try to make Chrissy solution work for CSVs, then try running Anderson files on Chrissy</t>
-  </si>
-  <si>
-    <t>find out why first script needs to be run from ISE</t>
-  </si>
-  <si>
-    <t>loading</t>
-  </si>
-  <si>
     <t>1. Chrissy's solution</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
   </si>
   <si>
     <t>3. Our Current Solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $columnparser = New-Object Microsoft.VisualBasic.FileIO.TextFieldParser($parserfile)</t>
   </si>
   <si>
     <t>Remove-Module -Name "CsvSqlimport"</t>
@@ -258,12 +234,75 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>$bulkcopy.WriteToServer($datatable)</t>
+  </si>
+  <si>
+    <r>
+      <t>$bulkcopy = New-Object Data.SqlClient.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SqlBulkCopy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($sqlconn,"Default",$transaction)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$bulkCopy.WriteToServer($Data) </t>
+  </si>
+  <si>
+    <t>Additional commands:</t>
+  </si>
+  <si>
+    <t>1m35s</t>
+  </si>
+  <si>
+    <t>$dtemp = Import-Csv -Path $($Directory+$i) #- | Out-DataTable</t>
+  </si>
+  <si>
+    <t>AssignmentApplication.csv</t>
+  </si>
+  <si>
+    <t>remvoe insterting double quotes into db</t>
+  </si>
+  <si>
+    <t>remove apostrophe parsing</t>
+  </si>
+  <si>
+    <t>623MB</t>
+  </si>
+  <si>
+    <t>2. Existing_LoadCsv.ps1</t>
+  </si>
+  <si>
+    <t>took 1min 55s</t>
+  </si>
+  <si>
+    <t>Chrissy failed as empty columns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +330,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,17 +391,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M23" totalsRowShown="0">
+  <autoFilter ref="A1:M23"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Script name"/>
@@ -657,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,68 +745,68 @@
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="72.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="161.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -752,187 +820,215 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" s="2"/>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>50000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>50000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L20" t="s">
-        <v>38</v>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A5:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Existing_LoadCSV.ps1</t>
   </si>
@@ -37,9 +37,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>H:\InProgress\CSVTest\Chrissy\Existing_LoadCSV.ps1</t>
-  </si>
-  <si>
     <t>cd E:\GIT\DataProjects\_SharedScripts\NEW\ToInit_V8\Import\CSV</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>LoadCsvTosql.ps1</t>
   </si>
   <si>
-    <t>yes (??)</t>
-  </si>
-  <si>
     <t>Batch size</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t>Script name</t>
   </si>
   <si>
-    <t>53.73s</t>
-  </si>
-  <si>
-    <t>25.59s</t>
-  </si>
-  <si>
     <t>2.5s</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>doesn't work without tablename specified</t>
   </si>
   <si>
-    <t>use param -FirstRowColumns</t>
-  </si>
-  <si>
     <t>Solution Used</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t>Get-ChildItem  H:\InProgress\PowerShell_CSV\myRepo\SourceFilesTXT\*.txt | select FullName, @{n='Encoding';e={Get-FileEncoding $_.FullName}}</t>
-  </si>
-  <si>
-    <t>cd H:\InProgress\PowerShell_CSV\myRepo\SourceFilesCSV</t>
-  </si>
-  <si>
-    <t>14m 42s</t>
   </si>
   <si>
     <t>2.23s</t>
@@ -235,9 +214,6 @@
     </r>
   </si>
   <si>
-    <t>$bulkcopy.WriteToServer($datatable)</t>
-  </si>
-  <si>
     <r>
       <t>$bulkcopy = New-Object Data.SqlClient.</t>
     </r>
@@ -297,12 +273,78 @@
   <si>
     <t>Chrissy failed as empty columns</t>
   </si>
+  <si>
+    <t>no, yes for csvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$conn.Open() </t>
+  </si>
+  <si>
+    <t>$bulkCopy = new-object ("Data.SqlClient.SqlBulkCopy") $connectionString</t>
+  </si>
+  <si>
+    <t>$bulkCopy.DestinationTableName = $tableName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$bulkCopy.BatchSize = $BatchSize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$bulkCopy.BulkCopyTimeout = $QueryTimeOut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$conn.Close() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$dt = new-object Data.datatable   </t>
+  </si>
+  <si>
+    <t>Click Run Script button in ISE</t>
+  </si>
+  <si>
+    <r>
+      <t>$bulkcopy.WriteToServer(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$datatable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>25min??</t>
+  </si>
+  <si>
+    <t>26min</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>Import-CsvToSql -Csv H:\InProgress\PowerShell_CSV\myRepo\SourceFilesCSV\AQCSVs\Contractor.csv -SqlServer WIN-N53LUO6QQ58\SQL14 -Database youCanDeleteThis -Delimiter "," -FirstRowColumns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,14 +372,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,18 +442,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -441,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M23" totalsRowShown="0">
-  <autoFilter ref="A1:M23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M25" totalsRowShown="0">
+  <autoFilter ref="A1:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Script name"/>
@@ -725,16 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -748,71 +779,71 @@
     <col min="13" max="13" width="125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>50000</v>
@@ -821,175 +852,205 @@
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K3" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K5" s="2"/>
       <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>50000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K6" s="8" t="s">
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>50000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1013,22 +1074,22 @@
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
